--- a/exp2_mod.xlsx
+++ b/exp2_mod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IA-P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93198FCF-62F7-4A6B-B607-32181A2180A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30CF5AA-9496-4EF0-A6C4-54FDD4412FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="2016" windowWidth="23304" windowHeight="9420" xr2:uid="{6AB80ABA-CAC0-4276-A1D9-ECF19083CDEF}"/>
+    <workbookView xWindow="4392" yWindow="1320" windowWidth="17508" windowHeight="10740" xr2:uid="{6AB80ABA-CAC0-4276-A1D9-ECF19083CDEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,23 +442,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2AE702-E71D-41D1-9529-EFB9EED9AF5D}">
   <dimension ref="A3:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -467,11 +467,11 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -519,7 +519,7 @@
         <v>11620</v>
       </c>
       <c r="C8" s="1">
-        <v>34016</v>
+        <v>32564</v>
       </c>
       <c r="E8" s="1">
         <v>507</v>
@@ -528,7 +528,7 @@
         <v>73</v>
       </c>
       <c r="G8" s="1">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="I8" s="1">
         <v>1457470</v>
@@ -537,366 +537,366 @@
         <v>545930</v>
       </c>
       <c r="K8" s="1">
-        <v>1425519</v>
+        <v>1507508</v>
       </c>
       <c r="M8" s="1">
         <v>2633</v>
       </c>
       <c r="N8" s="1">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="O8" s="1">
-        <v>639</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>50875</v>
+        <v>41274</v>
       </c>
       <c r="B9" s="1">
-        <v>11421</v>
+        <v>11150</v>
       </c>
       <c r="C9" s="1">
-        <v>30313</v>
+        <v>29144</v>
       </c>
       <c r="E9" s="1">
-        <v>409</v>
+        <v>682</v>
       </c>
       <c r="F9" s="1">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="I9" s="1">
-        <v>1368200</v>
+        <v>1391531</v>
       </c>
       <c r="J9" s="1">
-        <v>518579</v>
+        <v>524182</v>
       </c>
       <c r="K9" s="1">
-        <v>1382784</v>
+        <v>1392064</v>
       </c>
       <c r="M9" s="1">
-        <v>1612</v>
+        <v>2839</v>
       </c>
       <c r="N9" s="1">
-        <v>198</v>
+        <v>515</v>
       </c>
       <c r="O9" s="1">
-        <v>604</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>61545</v>
       </c>
       <c r="B10" s="1">
-        <v>11150</v>
+        <v>11530</v>
       </c>
       <c r="C10" s="1">
-        <v>35276</v>
+        <v>30005</v>
       </c>
       <c r="E10" s="1">
-        <v>682</v>
+        <v>384</v>
       </c>
       <c r="F10" s="1">
         <v>85</v>
       </c>
       <c r="G10" s="1">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="I10" s="1">
-        <v>1391531</v>
+        <v>1483503</v>
       </c>
       <c r="J10" s="1">
-        <v>524182</v>
+        <v>538745</v>
       </c>
       <c r="K10" s="1">
-        <v>1459062</v>
+        <v>1390438</v>
       </c>
       <c r="M10" s="1">
-        <v>2725</v>
+        <v>1545</v>
       </c>
       <c r="N10" s="1">
-        <v>542</v>
+        <v>373</v>
       </c>
       <c r="O10" s="1">
-        <v>324</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>67760</v>
+        <v>127834</v>
       </c>
       <c r="B11" s="1">
-        <v>12385</v>
+        <v>11766</v>
       </c>
       <c r="C11" s="1">
-        <v>32822</v>
+        <v>34106</v>
       </c>
       <c r="E11" s="1">
-        <v>313</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1">
-        <v>1487869</v>
+        <v>1531287</v>
       </c>
       <c r="J11" s="1">
-        <v>556771</v>
+        <v>559888</v>
       </c>
       <c r="K11" s="1">
-        <v>1426888</v>
+        <v>1452272</v>
       </c>
       <c r="M11" s="1">
-        <v>1264</v>
+        <v>208</v>
       </c>
       <c r="N11" s="1">
-        <v>364</v>
+        <v>513</v>
       </c>
       <c r="O11" s="1">
-        <v>508</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>61545</v>
+        <v>66253</v>
       </c>
       <c r="B12" s="1">
-        <v>11530</v>
+        <v>12429</v>
       </c>
       <c r="C12" s="1">
-        <v>28812</v>
+        <v>33123</v>
       </c>
       <c r="E12" s="1">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="F12" s="1">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="I12" s="1">
-        <v>1483503</v>
+        <v>1533318</v>
       </c>
       <c r="J12" s="1">
-        <v>538745</v>
+        <v>551884</v>
       </c>
       <c r="K12" s="1">
-        <v>1361685</v>
+        <v>1523332</v>
       </c>
       <c r="M12" s="1">
-        <v>1490</v>
+        <v>1631</v>
       </c>
       <c r="N12" s="1">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="O12" s="1">
-        <v>775</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>92366</v>
+        <v>60744</v>
       </c>
       <c r="B13" s="1">
-        <v>11965</v>
+        <v>10760</v>
       </c>
       <c r="C13" s="1">
-        <v>37088</v>
+        <v>28794</v>
       </c>
       <c r="E13" s="1">
-        <v>136</v>
+        <v>423</v>
       </c>
       <c r="F13" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="I13" s="1">
-        <v>1498715</v>
+        <v>1482869</v>
       </c>
       <c r="J13" s="1">
-        <v>560467</v>
+        <v>507150</v>
       </c>
       <c r="K13" s="1">
-        <v>1536157</v>
+        <v>1379917</v>
       </c>
       <c r="M13" s="1">
-        <v>565</v>
+        <v>1936</v>
       </c>
       <c r="N13" s="1">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O13" s="1">
-        <v>176</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>127834</v>
+        <v>54363</v>
       </c>
       <c r="B14" s="1">
-        <v>11766</v>
+        <v>12880</v>
       </c>
       <c r="C14" s="1">
-        <v>30799</v>
+        <v>38616</v>
       </c>
       <c r="E14" s="1">
-        <v>49</v>
+        <v>435</v>
       </c>
       <c r="F14" s="1">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1">
-        <v>1531287</v>
+        <v>1519333</v>
       </c>
       <c r="J14" s="1">
-        <v>559888</v>
+        <v>538225</v>
       </c>
       <c r="K14" s="1">
-        <v>1422909</v>
+        <v>1556085</v>
       </c>
       <c r="M14" s="1">
-        <v>199</v>
+        <v>2215</v>
       </c>
       <c r="N14" s="1">
-        <v>441</v>
+        <v>159</v>
       </c>
       <c r="O14" s="1">
-        <v>588</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>77629</v>
+        <v>91544</v>
       </c>
       <c r="B15" s="1">
-        <v>13426</v>
+        <v>12343</v>
       </c>
       <c r="C15" s="1">
-        <v>29379</v>
+        <v>34871</v>
       </c>
       <c r="E15" s="1">
-        <v>277</v>
+        <v>128</v>
       </c>
       <c r="F15" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="I15" s="1">
-        <v>1562198</v>
+        <v>1433300</v>
       </c>
       <c r="J15" s="1">
-        <v>525324</v>
+        <v>505685</v>
       </c>
       <c r="K15" s="1">
-        <v>1406779</v>
+        <v>1434903</v>
       </c>
       <c r="M15" s="1">
-        <v>1207</v>
+        <v>619</v>
       </c>
       <c r="N15" s="1">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="O15" s="1">
-        <v>1098</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>66253</v>
+        <v>76216</v>
       </c>
       <c r="B16" s="1">
-        <v>12429</v>
+        <v>12267</v>
       </c>
       <c r="C16" s="1">
-        <v>31932</v>
+        <v>31621</v>
       </c>
       <c r="E16" s="1">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F16" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="I16" s="1">
-        <v>1533318</v>
+        <v>1606260</v>
       </c>
       <c r="J16" s="1">
-        <v>551884</v>
+        <v>576633</v>
       </c>
       <c r="K16" s="1">
-        <v>1490804</v>
+        <v>1499951</v>
       </c>
       <c r="M16" s="1">
-        <v>1578</v>
+        <v>1744</v>
       </c>
       <c r="N16" s="1">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="O16" s="1">
-        <v>803</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>80170</v>
+        <v>110570</v>
       </c>
       <c r="B17" s="1">
-        <v>11610</v>
+        <v>12037</v>
       </c>
       <c r="C17" s="1">
-        <v>30862</v>
+        <v>33181</v>
       </c>
       <c r="E17" s="1">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="F17" s="1">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="G17" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1">
-        <v>1461695</v>
+        <v>1556596</v>
       </c>
       <c r="J17" s="1">
-        <v>554044</v>
+        <v>493143</v>
       </c>
       <c r="K17" s="1">
-        <v>1431784</v>
+        <v>1496975</v>
       </c>
       <c r="M17" s="1">
-        <v>737</v>
+        <v>611</v>
       </c>
       <c r="N17" s="1">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="O17" s="1">
-        <v>443</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -933,7 +933,7 @@
         <v>19146</v>
       </c>
       <c r="C20" s="1">
-        <v>60915</v>
+        <v>55093</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
@@ -948,13 +948,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>165476</v>
+        <v>183845</v>
       </c>
       <c r="B21" s="1">
-        <v>14676</v>
+        <v>18641</v>
       </c>
       <c r="C21" s="1">
-        <v>47904</v>
+        <v>60614</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -969,13 +969,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>183845</v>
+        <v>183592</v>
       </c>
       <c r="B22" s="1">
-        <v>18641</v>
+        <v>21369</v>
       </c>
       <c r="C22" s="1">
-        <v>55469</v>
+        <v>54133</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
@@ -993,13 +993,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>183370</v>
+        <v>171975</v>
       </c>
       <c r="B23" s="1">
-        <v>17841</v>
+        <v>21692</v>
       </c>
       <c r="C23" s="1">
-        <v>50868</v>
+        <v>66922</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
@@ -1017,13 +1017,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>183592</v>
+        <v>213037</v>
       </c>
       <c r="B24" s="1">
-        <v>21369</v>
+        <v>17293</v>
       </c>
       <c r="C24" s="1">
-        <v>55768</v>
+        <v>52439</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
@@ -1041,13 +1041,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>220713</v>
+        <v>191539</v>
       </c>
       <c r="B25" s="1">
-        <v>26703</v>
+        <v>16924</v>
       </c>
       <c r="C25" s="1">
-        <v>53837</v>
+        <v>50203</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -1065,13 +1065,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>171975</v>
+        <v>167078</v>
       </c>
       <c r="B26" s="1">
-        <v>21692</v>
+        <v>16936</v>
       </c>
       <c r="C26" s="1">
-        <v>58291</v>
+        <v>54281</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
@@ -1089,52 +1089,52 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>162404</v>
+        <v>211169</v>
       </c>
       <c r="B27" s="1">
-        <v>17490</v>
+        <v>18185</v>
       </c>
       <c r="C27" s="1">
-        <v>60716</v>
-      </c>
-      <c r="E27" s="5">
+        <v>67967</v>
+      </c>
+      <c r="E27" s="3">
         <v>894</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>213037</v>
+        <v>197945</v>
       </c>
       <c r="B28" s="1">
-        <v>17293</v>
+        <v>20727</v>
       </c>
       <c r="C28" s="1">
-        <v>62786</v>
-      </c>
-      <c r="E28" s="5">
+        <v>54722</v>
+      </c>
+      <c r="E28" s="3">
         <v>1173</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>170002</v>
+        <v>209576</v>
       </c>
       <c r="B29" s="1">
-        <v>19608</v>
+        <v>15480</v>
       </c>
       <c r="C29" s="1">
-        <v>51060</v>
-      </c>
-      <c r="E29" s="5">
+        <v>52657</v>
+      </c>
+      <c r="E29" s="3">
         <v>404</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>1093</v>
       </c>
     </row>
@@ -1147,5 +1147,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>